--- a/output/Arctic_Bay/k_9/clusters_data.xlsx
+++ b/output/Arctic_Bay/k_9/clusters_data.xlsx
@@ -20,6 +20,408 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
     <t>118</t>
   </si>
   <si>
@@ -35,10 +437,19 @@
     <t>19</t>
   </si>
   <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
     <t>180</t>
   </si>
   <si>
-    <t>147</t>
+    <t>183</t>
   </si>
   <si>
     <t>158</t>
@@ -53,15 +464,9 @@
     <t>113</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>73</t>
   </si>
   <si>
@@ -80,9 +485,6 @@
     <t>156</t>
   </si>
   <si>
-    <t>153</t>
-  </si>
-  <si>
     <t>160</t>
   </si>
   <si>
@@ -98,7 +500,7 @@
     <t>117</t>
   </si>
   <si>
-    <t>151</t>
+    <t>162</t>
   </si>
   <si>
     <t>114</t>
@@ -119,478 +521,76 @@
     <t>111</t>
   </si>
   <si>
-    <t>17</t>
+    <t>127</t>
   </si>
   <si>
     <t>129</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>92</t>
   </si>
   <si>
-    <t>130</t>
+    <t>44</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>124</t>
   </si>
   <si>
-    <t>81</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
   <si>
     <t>126</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>83</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>28</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>290</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>210</t>
   </si>
 </sst>
 </file>
@@ -931,18 +931,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -968,631 +968,631 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54">
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
       </c>
       <c r="O3" t="s">
         <v>47</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="R3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54">
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54">
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54">
+        <v>109</v>
+      </c>
+      <c r="T6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="Q8" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" t="s">
-        <v>110</v>
-      </c>
-      <c r="T8" t="s">
-        <v>111</v>
-      </c>
-      <c r="U8" t="s">
-        <v>112</v>
-      </c>
-      <c r="V8" t="s">
-        <v>113</v>
-      </c>
-      <c r="W8" t="s">
-        <v>114</v>
-      </c>
-      <c r="X8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="L9" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="O9" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="Q9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="R9" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="S9" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="T9" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="U9" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="V9" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="W9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54">
+        <v>155</v>
+      </c>
+      <c r="X9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="J10" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="L10" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="M10" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="O10" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="Q10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="R10" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="S10" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="T10" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="U10" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="V10" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="W10" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="X10" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="Y10" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="Z10" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AA10" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AB10" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AC10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB10" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1603,60 +1603,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1664,27 +1667,18 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1692,48 +1686,48 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>6</v>
       </c>
     </row>
